--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H2">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I2">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.06996478735055554</v>
+        <v>0.03668871934933333</v>
       </c>
       <c r="R2">
-        <v>0.6296830861549999</v>
+        <v>0.330198474144</v>
       </c>
       <c r="S2">
-        <v>0.01126624625428257</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="T2">
-        <v>0.0200845870942452</v>
+        <v>0.01663265480083782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H3">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I3">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.03215370026866666</v>
+        <v>0.01548231936533333</v>
       </c>
       <c r="R3">
-        <v>0.2893833024179999</v>
+        <v>0.139340874288</v>
       </c>
       <c r="S3">
-        <v>0.005177626044915206</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="T3">
-        <v>0.009230268795252228</v>
+        <v>0.007018835164781924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H4">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I4">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>2.861906396882833</v>
+        <v>0.006304056801777778</v>
       </c>
       <c r="R4">
-        <v>17.171438381297</v>
+        <v>0.056736511216</v>
       </c>
       <c r="S4">
-        <v>0.4608452829626521</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="T4">
-        <v>0.5477060719679707</v>
+        <v>0.002857913889838424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,294 +726,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H5">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I5">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03596566666666667</v>
+        <v>31.927516</v>
       </c>
       <c r="N5">
-        <v>0.107897</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O5">
-        <v>0.002534195830976933</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P5">
-        <v>0.003732431270590561</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q5">
-        <v>0.007530503275222221</v>
+        <v>3.218889593098667</v>
       </c>
       <c r="R5">
-        <v>0.067774529477</v>
+        <v>19.313337558592</v>
       </c>
       <c r="S5">
-        <v>0.001212617196879986</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="T5">
-        <v>0.002161759573953718</v>
+        <v>0.9728454303033116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2281945</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H6">
-        <v>0.456389</v>
+        <v>0.302456</v>
       </c>
       <c r="I6">
-        <v>0.5214982275412701</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4208173125685781</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3341516666666666</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N6">
-        <v>1.002455</v>
+        <v>0.042347</v>
       </c>
       <c r="O6">
-        <v>0.02354483703663662</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P6">
-        <v>0.03467746452042096</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q6">
-        <v>0.07625157249916667</v>
+        <v>0.001423122692444444</v>
       </c>
       <c r="R6">
-        <v>0.457509434995</v>
+        <v>0.012808104232</v>
       </c>
       <c r="S6">
-        <v>0.01227859078235405</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="T6">
-        <v>0.01459287742617577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2281945</v>
-      </c>
-      <c r="H7">
-        <v>0.456389</v>
-      </c>
-      <c r="I7">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J7">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.153566</v>
-      </c>
-      <c r="N7">
-        <v>0.4606979999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.01082049501783563</v>
-      </c>
-      <c r="P7">
-        <v>0.01593671391696275</v>
-      </c>
-      <c r="Q7">
-        <v>0.035042916587</v>
-      </c>
-      <c r="R7">
-        <v>0.210257499522</v>
-      </c>
-      <c r="S7">
-        <v>0.005642868972920425</v>
-      </c>
-      <c r="T7">
-        <v>0.006706445121710523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.2281945</v>
-      </c>
-      <c r="H8">
-        <v>0.456389</v>
-      </c>
-      <c r="I8">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J8">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>13.6684585</v>
-      </c>
-      <c r="N8">
-        <v>27.336917</v>
-      </c>
-      <c r="O8">
-        <v>0.9631004721145509</v>
-      </c>
-      <c r="P8">
-        <v>0.9456533902920258</v>
-      </c>
-      <c r="Q8">
-        <v>3.11906705317825</v>
-      </c>
-      <c r="R8">
-        <v>12.476268212713</v>
-      </c>
-      <c r="S8">
-        <v>0.5022551891518987</v>
-      </c>
-      <c r="T8">
-        <v>0.397947318324055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.2281945</v>
-      </c>
-      <c r="H9">
-        <v>0.456389</v>
-      </c>
-      <c r="I9">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J9">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.03596566666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.107897</v>
-      </c>
-      <c r="O9">
-        <v>0.002534195830976933</v>
-      </c>
-      <c r="P9">
-        <v>0.003732431270590561</v>
-      </c>
-      <c r="Q9">
-        <v>0.008207167322166668</v>
-      </c>
-      <c r="R9">
-        <v>0.04924300393300001</v>
-      </c>
-      <c r="S9">
-        <v>0.001321578634096947</v>
-      </c>
-      <c r="T9">
-        <v>0.001570671696636843</v>
+        <v>0.0006451658412300904</v>
       </c>
     </row>
   </sheetData>
